--- a/biology/Histoire de la zoologie et de la botanique/Robert_William_Pennak/Robert_William_Pennak.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_William_Pennak/Robert_William_Pennak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert William Pennak est un zoologiste américain, né le 13 juin 1912 à Milwaukee et mort le 23 juin 2004 à Denver.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à l’enseignement d’un professeur de biologie, le jeune Pennak s’intéresse aux sciences. Il étudie à l’université du Milwaukee où il suit les cours de Chancey Juday (1871-1944) sur la limnologie et le plancton. Il achète alors son propre microscope et passe ses week-ends à étudier des échantillons de planctons qu’il récolte lui-même. En 1934, il obtient un Bachelor of Arts en biologie.
 Juday lui propose en 1934 un poste de chercheur assistant au sein du Trout Lake Limnological Laboratory du service de recherche géologique et d’histoire naturelle de l’université, laboratoire fondée en juin 1925. Juday avait organisé quatre groupes de recherche extrêmement actifs (sur les poissons, la microbiologie, la chimie et le plancton). Ces groupes sont chargés d’échantillonner tous les dix jours dans divers lacs autour du laboratoire. Y participe notamment, malgré son âge avancé, le biologiste Edward Asahel Birge (1851-1950), spécialiste de la taxinomie des crustacés copépodes. Plusieurs élèves de Birge et de Juday deviendront des zoologistes réputés comme Ruby Bere (1900-1996), Nathan Fasten (1887-1953), David Grover Frey (1915-1992), Willis Lattaner Tressler (1903-1973) ou Stillman Wright (1898-1989).
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">David M. Damkaer (2007). Robert William Pennak, 13 June 1912 – 23 June 2004, Monoculus, 48 : 7-9.
  Portail de l’histoire de la zoologie et de la botanique   Portail de la zoologie                    </t>
